--- a/task.xlsx
+++ b/task.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WIN\year3\web2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tuan/Desktop/Dev-Works/HCMUS/HK6/Lap trinh Web 2/BTN/Yellow/web2-2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56DF13CB-66B2-44A7-8B58-57D0DE542184}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A366A1E0-DF79-1D4D-9490-0656FCD4BCF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="33">
   <si>
     <t>task name</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>30/06/2020</t>
+  </si>
+  <si>
+    <t>done</t>
   </si>
 </sst>
 </file>
@@ -462,20 +465,20 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="5" max="5" width="25.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -495,7 +498,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -512,7 +515,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -529,7 +532,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -546,7 +549,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -563,7 +566,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -580,7 +583,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -597,7 +600,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -614,7 +617,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -631,7 +634,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -639,7 +642,7 @@
         <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
         <v>31</v>
@@ -648,7 +651,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -656,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
         <v>31</v>
@@ -665,7 +668,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -673,7 +676,7 @@
         <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
         <v>31</v>
@@ -682,7 +685,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -690,7 +693,7 @@
         <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
         <v>31</v>
@@ -699,7 +702,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -716,7 +719,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -733,7 +736,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -750,7 +753,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -767,7 +770,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -784,7 +787,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -801,7 +804,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -818,7 +821,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>25</v>
       </c>

--- a/task.xlsx
+++ b/task.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tuan/Desktop/Dev-Works/HCMUS/HK6/Lap trinh Web 2/BTN/Yellow/web2-2020/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WIN\year3\web2\web2-2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A366A1E0-DF79-1D4D-9490-0656FCD4BCF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4448BD-6F0E-497F-AD7D-139E109863F3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,9 +48,6 @@
     <t>design_database</t>
   </si>
   <si>
-    <t>admin_log</t>
-  </si>
-  <si>
     <t>admin</t>
   </si>
   <si>
@@ -124,6 +121,9 @@
   </si>
   <si>
     <t>done</t>
+  </si>
+  <si>
+    <t>account_log</t>
   </si>
 </sst>
 </file>
@@ -465,20 +465,20 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" customWidth="1"/>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="25.33203125" customWidth="1"/>
-    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -498,344 +498,344 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
         <v>26</v>
       </c>
-      <c r="C2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
         <v>26</v>
       </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
         <v>26</v>
       </c>
-      <c r="C5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
         <v>27</v>
       </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
         <v>27</v>
       </c>
-      <c r="C12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
         <v>27</v>
       </c>
-      <c r="C13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
         <v>28</v>
       </c>
-      <c r="C14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
         <v>28</v>
       </c>
-      <c r="C15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
         <v>28</v>
       </c>
-      <c r="C16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="C20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
         <v>28</v>
       </c>
-      <c r="C17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" t="s">
-        <v>29</v>
-      </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
